--- a/data_8.xlsx
+++ b/data_8.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>3.933570509539784</v>
+        <v>3.922375654604938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1102521688614255</v>
+        <v>0.11209648402610838</v>
       </c>
       <c r="D2" t="n">
-        <v>5.115011499220051</v>
+        <v>5.141456474165606</v>
       </c>
       <c r="E2" t="n">
-        <v>0.200523529630892</v>
+        <v>0.2016140778679706</v>
       </c>
       <c r="F2" t="n">
         <v>0.0503924993564974</v>
@@ -132,7 +132,7 @@
         <v>5.974470415565596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.26212826754317775</v>
+        <v>0.2615849145593292</v>
       </c>
       <c r="D3" t="n">
         <v>8.87872357706912</v>
@@ -152,7 +152,7 @@
         <v>6.283370935299863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6276195635953967</v>
+        <v>0.6263186014145624</v>
       </c>
       <c r="D4" t="n">
         <v>10.292990837519543</v>
